--- a/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
+++ b/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
@@ -8,9 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Return QTY</t>
   </si>
@@ -82,9 +82,6 @@
     <t>i80</t>
   </si>
   <si>
-    <t>l135</t>
-  </si>
-  <si>
     <t>l136</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>l145</t>
   </si>
   <si>
-    <t>l260</t>
-  </si>
-  <si>
     <t>l270</t>
   </si>
   <si>
@@ -115,9 +109,6 @@
     <t>s45</t>
   </si>
   <si>
-    <t>t92</t>
-  </si>
-  <si>
     <t>v138</t>
   </si>
   <si>
@@ -154,9 +145,6 @@
     <t>2nd</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
     <t>Lifing</t>
   </si>
   <si>
@@ -188,6 +176,9 @@
   </si>
   <si>
     <t xml:space="preserve">Opening QTY </t>
+  </si>
+  <si>
+    <t>Instant Return</t>
   </si>
 </sst>
 </file>
@@ -225,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -297,11 +288,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,7 +352,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -318,26 +370,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,7 +683,7 @@
     <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
@@ -642,82 +694,82 @@
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="11"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>48</v>
+      <c r="H3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2"/>
@@ -732,9 +784,9 @@
       </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>2</v>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -744,13 +796,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
-        <v>8100</v>
+        <v>1090</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>3</v>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -760,13 +812,13 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -776,13 +828,13 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <v>1080</v>
+        <v>1270</v>
       </c>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>5</v>
+    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -792,13 +844,13 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
-        <v>1270</v>
+        <v>1160</v>
       </c>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>6</v>
+    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -808,13 +860,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2">
-        <v>1160</v>
+        <v>1190</v>
       </c>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>7</v>
+    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -824,13 +876,13 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
-        <v>1190</v>
+        <v>1330</v>
       </c>
       <c r="J11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>8</v>
+    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -840,13 +892,13 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
+    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -856,13 +908,13 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
-        <v>1370</v>
+        <v>1270</v>
       </c>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
+    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -872,13 +924,13 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2">
-        <v>1270</v>
+        <v>1600</v>
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -888,13 +940,13 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
-        <v>1600</v>
+        <v>1250</v>
       </c>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>12</v>
+    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -908,9 +960,9 @@
       </c>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
+    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -920,13 +972,13 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2">
-        <v>1190</v>
+        <v>1290</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>14</v>
+    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -936,13 +988,13 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
-        <v>1290</v>
+        <v>1420</v>
       </c>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
+    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -952,13 +1004,13 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
-        <v>5370</v>
+        <v>1500</v>
       </c>
       <c r="J19" s="2"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>16</v>
+    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -968,13 +1020,13 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
-        <v>5650</v>
+        <v>1540</v>
       </c>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>17</v>
+    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -984,13 +1036,13 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
-        <v>15560</v>
+        <v>1600</v>
       </c>
       <c r="J21" s="2"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>18</v>
+    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1000,13 +1052,13 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
-        <v>6980</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>19</v>
+    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1016,13 +1068,13 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
-        <v>7540</v>
+        <v>1380</v>
       </c>
       <c r="J23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>20</v>
+    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1032,13 +1084,13 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2">
-        <v>1450</v>
+        <v>1400</v>
       </c>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>21</v>
+    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1048,14 +1100,12 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
-        <v>1420</v>
+        <v>1510</v>
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>22</v>
-      </c>
+    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1063,14 +1113,12 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2">
-        <v>1500</v>
-      </c>
+      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>23</v>
+    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1080,13 +1128,13 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2">
-        <v>1540</v>
+        <v>8100</v>
       </c>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>24</v>
+    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1096,13 +1144,13 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2">
-        <v>1460</v>
+        <v>5370</v>
       </c>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>25</v>
+    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1112,13 +1160,13 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2">
-        <v>1600</v>
+        <v>5650</v>
       </c>
       <c r="J29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>26</v>
+    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1128,13 +1176,13 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2">
-        <v>1400</v>
+        <v>15560</v>
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>27</v>
+    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1144,13 +1192,13 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2">
-        <v>1240</v>
+        <v>6980</v>
       </c>
       <c r="J31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>28</v>
+    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1160,12 +1208,12 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2">
-        <v>1380</v>
+        <v>7540</v>
       </c>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B33" s="2"/>
@@ -1176,12 +1224,12 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2">
-        <v>1400</v>
+        <v>6200</v>
       </c>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B34" s="2"/>
@@ -1192,12 +1240,12 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2">
-        <v>1510</v>
+        <v>6600</v>
       </c>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="2"/>
@@ -1208,12 +1256,12 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2">
-        <v>1340</v>
+        <v>8310</v>
       </c>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B36" s="2"/>
@@ -1224,12 +1272,12 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2">
-        <v>6200</v>
+        <v>8480</v>
       </c>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B37" s="2"/>
@@ -1240,12 +1288,12 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2">
-        <v>6600</v>
+        <v>9890</v>
       </c>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B38" s="2"/>
@@ -1256,12 +1304,12 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2">
-        <v>8310</v>
+        <v>10560</v>
       </c>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="2"/>
@@ -1272,12 +1320,12 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2">
-        <v>8480</v>
+        <v>11770</v>
       </c>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B40" s="2"/>
@@ -1288,12 +1336,12 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2">
-        <v>9890</v>
+        <v>10820</v>
       </c>
       <c r="J40" s="2"/>
     </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B41" s="2"/>
@@ -1304,12 +1352,12 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2">
-        <v>10560</v>
+        <v>12520</v>
       </c>
       <c r="J41" s="2"/>
     </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B42" s="2"/>
@@ -1324,10 +1372,8 @@
       </c>
       <c r="J42" s="2"/>
     </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>39</v>
-      </c>
+    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1335,71 +1381,25 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="2">
-        <v>10820</v>
-      </c>
+      <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2">
-        <v>12520</v>
-      </c>
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2">
-        <v>11770</v>
-      </c>
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
+    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I1:J1"/>
@@ -1407,14 +1407,337 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D2:L40"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:L40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="4" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L26">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="L27">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28">
+        <v>15560</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>6980</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="L32">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35">
+        <v>9890</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36">
+        <v>10560</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="L37">
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38">
+        <v>10820</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L39">
+        <v>12520</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40">
+        <v>11770</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D2:L32">
+    <sortCondition ref="D2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
+++ b/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
   <si>
     <t>Return QTY</t>
   </si>
@@ -142,9 +142,6 @@
     <t>1st</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
     <t>Lifing</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Instant Return</t>
+  </si>
+  <si>
+    <t>Z25</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -280,32 +280,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -344,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +334,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -376,20 +357,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -671,104 +652,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="F3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="6"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -778,13 +752,12 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
+      <c r="H5" s="2">
         <v>1000</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -794,13 +767,12 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
+      <c r="H6" s="2">
         <v>1090</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -810,13 +782,12 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
         <v>1080</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -826,13 +797,12 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
         <v>1270</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -842,13 +812,12 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
         <v>1160</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -858,13 +827,12 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2">
+      <c r="H10" s="2">
         <v>1190</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -874,13 +842,12 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
+      <c r="H11" s="2">
         <v>1330</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -890,15 +857,14 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2">
+      <c r="H12" s="2">
         <v>1370</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -906,15 +872,14 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>1270</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="2">
+        <v>1600</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -922,15 +887,14 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>1600</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="2">
+        <v>1250</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -938,15 +902,14 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>1250</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <v>1290</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -954,15 +917,14 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2">
-        <v>1190</v>
-      </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H16" s="2">
+        <v>1420</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -970,15 +932,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2">
-        <v>1290</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H17" s="2">
+        <v>1500</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -986,15 +947,14 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>1420</v>
-      </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <v>1540</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1002,15 +962,14 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>1500</v>
-      </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1018,15 +977,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>1540</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="2">
+        <v>1400</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1034,15 +992,14 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>1600</v>
-      </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="2">
+        <v>1380</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1050,15 +1007,14 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
+      <c r="H22" s="2">
         <v>1400</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1066,31 +1022,25 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>1380</v>
-      </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2">
-        <v>1400</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="2">
+        <v>1510</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1098,27 +1048,29 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2">
-        <v>1510</v>
-      </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="H25" s="2">
+        <v>8100</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="H26" s="2">
+        <v>5370</v>
+      </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1126,15 +1078,14 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>8100</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="2">
+        <v>5650</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1142,15 +1093,14 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2">
-        <v>5370</v>
-      </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="2">
+        <v>15560</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1158,15 +1108,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2">
-        <v>5650</v>
-      </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>6980</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1174,15 +1123,14 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2">
-        <v>15560</v>
-      </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="2">
+        <v>7540</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1190,15 +1138,14 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2">
-        <v>6980</v>
-      </c>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="2">
+        <v>6200</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1206,15 +1153,14 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2">
-        <v>7540</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="2">
+        <v>6600</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1222,15 +1168,14 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2">
-        <v>6200</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H33" s="2">
+        <v>8310</v>
+      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1238,15 +1183,14 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2">
-        <v>6600</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="2">
+        <v>8480</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1254,15 +1198,14 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2">
-        <v>8310</v>
-      </c>
-      <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="2">
+        <v>9890</v>
+      </c>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1270,15 +1213,14 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2">
-        <v>8480</v>
-      </c>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>10560</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1286,15 +1228,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
-        <v>9890</v>
-      </c>
-      <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="2">
+        <v>11770</v>
+      </c>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1302,15 +1243,14 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2">
-        <v>10560</v>
-      </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="2">
+        <v>10820</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1318,15 +1258,14 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2">
-        <v>11770</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="2">
+        <v>12520</v>
+      </c>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1334,15 +1273,14 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2">
-        <v>10820</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H40" s="2">
+        <v>11770</v>
+      </c>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1350,16 +1288,13 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2">
-        <v>12520</v>
-      </c>
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="H41" s="2">
+        <v>7800</v>
+      </c>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1367,51 +1302,33 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="2">
-        <v>11770</v>
-      </c>
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="11">
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A2:I2"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
+++ b/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <t>Return QTY</t>
   </si>
@@ -178,14 +178,107 @@
     <t>Instant Return</t>
   </si>
   <si>
-    <t>Z25</t>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>B62</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>Bl120</t>
+  </si>
+  <si>
+    <t>Bl96</t>
+  </si>
+  <si>
+    <t>D41</t>
+  </si>
+  <si>
+    <t>D47</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>D82</t>
+  </si>
+  <si>
+    <t>L136</t>
+  </si>
+  <si>
+    <t>L140</t>
+  </si>
+  <si>
+    <t>L145</t>
+  </si>
+  <si>
+    <t>L270</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>L46</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t>Atom2</t>
+  </si>
+  <si>
+    <t>G10+</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>Helio30</t>
+  </si>
+  <si>
+    <t>V138</t>
+  </si>
+  <si>
+    <t>V139</t>
+  </si>
+  <si>
+    <t>Z22</t>
+  </si>
+  <si>
+    <t>Z33</t>
+  </si>
+  <si>
+    <t>Z42</t>
+  </si>
+  <si>
+    <t>Z42pro</t>
+  </si>
+  <si>
+    <t>Z45</t>
+  </si>
+  <si>
+    <t>Z55/128</t>
+  </si>
+  <si>
+    <t>Z55/64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,8 +294,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,12 +326,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -318,11 +439,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,47 +464,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -378,6 +533,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -652,99 +813,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
+      <c r="D4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -752,14 +920,15 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
+      <c r="H5" s="2"/>
+      <c r="I5" s="11">
         <v>1000</v>
       </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>3</v>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -767,14 +936,15 @@
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2">
+      <c r="H6" s="2"/>
+      <c r="I6" s="11">
         <v>1090</v>
       </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -782,14 +952,15 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2">
+      <c r="H7" s="2"/>
+      <c r="I7" s="11">
         <v>1080</v>
       </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -797,14 +968,15 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2">
+      <c r="H8" s="2"/>
+      <c r="I8" s="11">
         <v>1270</v>
       </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>6</v>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -812,14 +984,15 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2">
+      <c r="H9" s="2"/>
+      <c r="I9" s="11">
         <v>1160</v>
       </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -827,14 +1000,15 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2">
-        <v>1190</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
+      <c r="H10" s="2"/>
+      <c r="I10" s="11">
+        <v>1330</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -842,14 +1016,15 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2">
-        <v>1330</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
+      <c r="H11" s="2"/>
+      <c r="I11" s="11">
+        <v>1370</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -857,14 +1032,15 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2">
-        <v>1370</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
+      <c r="H12" s="2"/>
+      <c r="I12" s="11">
+        <v>1600</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -872,14 +1048,15 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>12</v>
+      <c r="H13" s="2"/>
+      <c r="I13" s="11">
+        <v>1250</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -887,14 +1064,15 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2">
-        <v>1250</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>14</v>
+      <c r="H14" s="2"/>
+      <c r="I14" s="11">
+        <v>1290</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -902,14 +1080,15 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2">
-        <v>1290</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
+      <c r="H15" s="2"/>
+      <c r="I15" s="11">
+        <v>1420</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -917,14 +1096,15 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="2">
-        <v>1420</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
+      <c r="H16" s="2"/>
+      <c r="I16" s="11">
+        <v>1500</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -932,14 +1112,15 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="2">
-        <v>1500</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
+      <c r="H17" s="2"/>
+      <c r="I17" s="11">
+        <v>1540</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -947,14 +1128,15 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
-        <v>1540</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
+      <c r="H18" s="2"/>
+      <c r="I18" s="11">
+        <v>1600</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -962,14 +1144,15 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
-        <v>1600</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
+      <c r="H19" s="2"/>
+      <c r="I19" s="11">
+        <v>1400</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -977,14 +1160,15 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="2">
-        <v>1400</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
+      <c r="H20" s="2"/>
+      <c r="I20" s="11">
+        <v>1380</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -992,14 +1176,15 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2">
-        <v>1380</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
+      <c r="H21" s="2"/>
+      <c r="I21" s="11">
+        <v>1400</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1007,40 +1192,39 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2">
-        <v>1400</v>
-      </c>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="11">
+        <v>1510</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2">
-        <v>1510</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>2</v>
+      <c r="H23" s="2"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1048,14 +1232,15 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="2">
+      <c r="H25" s="2"/>
+      <c r="I25" s="11">
         <v>8100</v>
       </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1063,14 +1248,15 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="2">
+      <c r="H26" s="2"/>
+      <c r="I26" s="11">
         <v>5370</v>
       </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>16</v>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1078,14 +1264,15 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="2">
+      <c r="H27" s="2"/>
+      <c r="I27" s="11">
         <v>5650</v>
       </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>17</v>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1093,13 +1280,14 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="2">
+      <c r="H28" s="2"/>
+      <c r="I28" s="11">
         <v>15560</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2"/>
@@ -1108,13 +1296,14 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="2">
+      <c r="H29" s="2"/>
+      <c r="I29" s="11">
         <v>6980</v>
       </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2"/>
@@ -1123,14 +1312,15 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="2">
+      <c r="H30" s="2"/>
+      <c r="I30" s="11">
         <v>7540</v>
       </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1138,14 +1328,15 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="2">
+      <c r="H31" s="2"/>
+      <c r="I31" s="11">
         <v>6200</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1153,14 +1344,15 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="2">
+      <c r="H32" s="2"/>
+      <c r="I32" s="11">
         <v>6600</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>31</v>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1168,14 +1360,15 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="2">
-        <v>8310</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>32</v>
+      <c r="H33" s="2"/>
+      <c r="I33" s="11">
+        <v>8480</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>78</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1183,14 +1376,15 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2">
-        <v>8480</v>
-      </c>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>33</v>
+      <c r="H34" s="2"/>
+      <c r="I34" s="11">
+        <v>9890</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1198,14 +1392,15 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>9890</v>
-      </c>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>34</v>
+      <c r="H35" s="2"/>
+      <c r="I35" s="11">
+        <v>10560</v>
+      </c>
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1213,14 +1408,15 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="2">
-        <v>10560</v>
-      </c>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>35</v>
+      <c r="H36" s="2"/>
+      <c r="I36" s="11">
+        <v>11770</v>
+      </c>
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1228,14 +1424,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="H37" s="2">
-        <v>11770</v>
-      </c>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
+      <c r="H37" s="2"/>
+      <c r="I37" s="11">
+        <v>10820</v>
+      </c>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1243,14 +1440,15 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2">
-        <v>10820</v>
-      </c>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>37</v>
+      <c r="H38" s="2"/>
+      <c r="I38" s="11">
+        <v>12520</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1258,78 +1456,52 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="2">
-        <v>12520</v>
-      </c>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="H39" s="2"/>
+      <c r="I39" s="11">
+        <v>11770</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="2">
-        <v>11770</v>
-      </c>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2">
-        <v>7800</v>
-      </c>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="H40" s="2"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="H3:H4"/>
+  <mergeCells count="12">
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0" header="0" footer="0"/>

--- a/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
+++ b/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
@@ -247,9 +247,6 @@
     <t>Helio30</t>
   </si>
   <si>
-    <t>V138</t>
-  </si>
-  <si>
     <t>V139</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>Z55/64</t>
+  </si>
+  <si>
+    <t>i85</t>
   </si>
 </sst>
 </file>
@@ -470,6 +470,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,19 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -505,27 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,8 +535,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
   <extLst>
@@ -815,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +838,8 @@
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="14"/>
       <c r="D1" s="3"/>
       <c r="E1" s="2" t="s">
         <v>45</v>
@@ -849,69 +849,69 @@
       <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="18" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="2"/>
@@ -921,13 +921,13 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="11">
+      <c r="I5" s="6">
         <v>1000</v>
       </c>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B6" s="2"/>
@@ -937,13 +937,13 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="11">
+      <c r="I6" s="6">
         <v>1090</v>
       </c>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="2"/>
@@ -953,13 +953,13 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="11">
+      <c r="I7" s="6">
         <v>1080</v>
       </c>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B8" s="2"/>
@@ -969,13 +969,13 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="11">
+      <c r="I8" s="6">
         <v>1270</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="B9" s="2"/>
@@ -985,13 +985,13 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="11">
+      <c r="I9" s="6">
         <v>1160</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="2"/>
@@ -1001,13 +1001,13 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="11">
+      <c r="I10" s="6">
         <v>1330</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="2"/>
@@ -1017,13 +1017,13 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="11">
+      <c r="I11" s="6">
         <v>1370</v>
       </c>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="2"/>
@@ -1033,13 +1033,13 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="11">
+      <c r="I12" s="6">
         <v>1600</v>
       </c>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="2"/>
@@ -1049,13 +1049,13 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="11">
+      <c r="I13" s="6">
         <v>1250</v>
       </c>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B14" s="2"/>
@@ -1065,13 +1065,13 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="11">
+      <c r="I14" s="6">
         <v>1290</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="2"/>
@@ -1081,13 +1081,13 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="11">
+      <c r="I15" s="6">
         <v>1420</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B16" s="2"/>
@@ -1097,13 +1097,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="11">
+      <c r="I16" s="6">
         <v>1500</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="2"/>
@@ -1113,13 +1113,13 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="11">
+      <c r="I17" s="6">
         <v>1540</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="2"/>
@@ -1129,13 +1129,13 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="11">
+      <c r="I18" s="6">
         <v>1600</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B19" s="2"/>
@@ -1145,13 +1145,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="11">
+      <c r="I19" s="6">
         <v>1400</v>
       </c>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="2"/>
@@ -1161,13 +1161,13 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="11">
+      <c r="I20" s="6">
         <v>1380</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="2"/>
@@ -1177,13 +1177,13 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="11">
+      <c r="I21" s="6">
         <v>1400</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="2"/>
@@ -1193,13 +1193,13 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="11">
+      <c r="I22" s="6">
         <v>1510</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="5"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1207,23 +1207,23 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="6"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="21"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B25" s="2"/>
@@ -1233,13 +1233,13 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="11">
+      <c r="I25" s="6">
         <v>8100</v>
       </c>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="2"/>
@@ -1249,13 +1249,13 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="11">
+      <c r="I26" s="6">
         <v>5370</v>
       </c>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B27" s="2"/>
@@ -1265,13 +1265,13 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="11">
+      <c r="I27" s="6">
         <v>5650</v>
       </c>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="2"/>
@@ -1281,13 +1281,13 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="11">
+      <c r="I28" s="6">
         <v>15560</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="2"/>
@@ -1297,13 +1297,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="11">
+      <c r="I29" s="6">
         <v>6980</v>
       </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="2"/>
@@ -1313,14 +1313,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="11">
+      <c r="I30" s="6">
         <v>7540</v>
       </c>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1329,14 +1329,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="11">
-        <v>6200</v>
+      <c r="I31" s="12">
+        <v>7830</v>
       </c>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>76</v>
+      <c r="A32" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1345,14 +1345,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="11">
+      <c r="I32" s="6">
         <v>6600</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>77</v>
+      <c r="A33" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1361,14 +1361,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="11">
+      <c r="I33" s="6">
         <v>8480</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>78</v>
+      <c r="A34" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1377,14 +1377,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="11">
+      <c r="I34" s="6">
         <v>9890</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>79</v>
+      <c r="A35" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1393,14 +1393,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="11">
+      <c r="I35" s="6">
         <v>10560</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>80</v>
+      <c r="A36" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1409,14 +1409,14 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="11">
+      <c r="I36" s="6">
         <v>11770</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
-        <v>81</v>
+      <c r="A37" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1425,14 +1425,14 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="11">
+      <c r="I37" s="6">
         <v>10820</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>82</v>
+      <c r="A38" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1441,14 +1441,14 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="11">
+      <c r="I38" s="6">
         <v>12520</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>83</v>
+      <c r="A39" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1457,13 +1457,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="11">
+      <c r="I39" s="6">
         <v>11770</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
+      <c r="A40" s="5"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1471,24 +1471,27 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="6"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="12"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="A25:J40">
+    <sortCondition ref="A25"/>
+  </sortState>
   <mergeCells count="12">
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>

--- a/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
+++ b/2022/Symphony/Others/DSR Sales sheet/DSR Sales Sheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Return QTY</t>
   </si>
@@ -272,6 +272,12 @@
   </si>
   <si>
     <t>i85</t>
+  </si>
+  <si>
+    <t>M50</t>
+  </si>
+  <si>
+    <t>Z25</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,6 +500,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -512,20 +521,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +831,7 @@
   <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,9 +839,8 @@
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -838,77 +852,77 @@
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="24" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="23"/>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="26" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="9" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1199,7 +1213,9 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>84</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1207,7 +1223,9 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6">
+        <v>1600</v>
+      </c>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,7 +1386,7 @@
     </row>
     <row r="34" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1378,13 +1396,13 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="6">
-        <v>9890</v>
+        <v>7800</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1394,13 +1412,13 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="6">
-        <v>10560</v>
+        <v>9890</v>
       </c>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1410,13 +1428,13 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="6">
-        <v>11770</v>
+        <v>10560</v>
       </c>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1426,13 +1444,13 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="6">
-        <v>10820</v>
+        <v>11770</v>
       </c>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1442,13 +1460,13 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="6">
-        <v>12520</v>
+        <v>10820</v>
       </c>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1458,12 +1476,14 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="6">
-        <v>11770</v>
+        <v>12520</v>
       </c>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
+      <c r="A40" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1471,7 +1491,9 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6">
+        <v>11770</v>
+      </c>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1499,12 +1521,12 @@
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0" header="0" footer="0"/>
